--- a/TestData/JTPS-DEVQA/BulkPaymentTypes.xlsx
+++ b/TestData/JTPS-DEVQA/BulkPaymentTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="114">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +953,7 @@
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
@@ -1085,13 +1085,11 @@
       <c r="U2" s="10"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
-      <c r="X2" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="X2" s="13"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -2206,12 +2204,8 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="22"/>
       <c r="E28" s="4" t="s">
         <v>19</v>
@@ -2577,15 +2571,9 @@
       <c r="X35" s="26"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A36" s="27"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="22"/>
       <c r="E36" s="4" t="s">
         <v>19</v>
@@ -2983,15 +2971,9 @@
       <c r="X44" s="10"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="22"/>
       <c r="E45" s="4" t="s">
         <v>19</v>
@@ -4270,15 +4252,9 @@
       <c r="X72" s="26"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
       <c r="D73" s="22"/>
       <c r="E73" s="4" t="s">
         <v>19</v>

--- a/TestData/JTPS-DEVQA/BulkPaymentTypes.xlsx
+++ b/TestData/JTPS-DEVQA/BulkPaymentTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="BulkPaymentTypes" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="114">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -256,9 +256,6 @@
     <t>5.2.6</t>
   </si>
   <si>
-    <t>allrows,value^Automati,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>5.3.2</t>
   </si>
   <si>
@@ -325,15 +322,9 @@
     <t>English,French,Spanish</t>
   </si>
   <si>
-    <t>Aut</t>
-  </si>
-  <si>
     <t>allrows,value^Aut</t>
   </si>
   <si>
-    <t>allrows,value^Aut,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>Field_Name1</t>
   </si>
   <si>
@@ -356,6 +347,15 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t>Zut</t>
+  </si>
+  <si>
+    <t>allrows,value^Zut,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>allrows,value^zut</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +447,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +551,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -635,6 +641,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -937,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X164"/>
+  <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D53" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75:P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,22 +1024,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="U1" s="39" t="s">
         <v>108</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>111</v>
       </c>
       <c r="V1" s="38" t="s">
         <v>9</v>
@@ -1049,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
@@ -1095,7 +1105,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
@@ -1117,10 +1127,10 @@
         <v>63</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>29</v>
@@ -1158,10 +1168,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="14"/>
@@ -1198,10 +1208,10 @@
         <v>63</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>33</v>
@@ -1237,10 +1247,10 @@
       <c r="K6" s="10"/>
       <c r="L6" s="1"/>
       <c r="M6" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>35</v>
@@ -1273,18 +1283,18 @@
         <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>35</v>
@@ -1325,13 +1335,12 @@
         <v>63</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="17" t="s">
         <v>40</v>
       </c>
       <c r="Q8" s="13"/>
@@ -1367,13 +1376,13 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>42</v>
@@ -1413,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="15"/>
@@ -1455,10 +1464,10 @@
         <v>45</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>35</v>
@@ -1501,13 +1510,13 @@
         <v>49</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>48</v>
@@ -1547,13 +1556,13 @@
         <v>49</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P13" s="24" t="s">
         <v>51</v>
@@ -1593,13 +1602,13 @@
         <v>49</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P14" s="14" t="s">
         <v>52</v>
@@ -1638,13 +1647,13 @@
         <v>49</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P15" s="34" t="s">
         <v>53</v>
@@ -1683,16 +1692,16 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P16" s="24" t="s">
         <v>53</v>
@@ -1732,13 +1741,13 @@
         <v>49</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>57</v>
@@ -1778,13 +1787,13 @@
         <v>49</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>58</v>
@@ -1824,13 +1833,13 @@
         <v>49</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P19" s="14" t="s">
         <v>59</v>
@@ -1870,13 +1879,13 @@
         <v>61</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P20" s="24" t="s">
         <v>53</v>
@@ -1916,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O21" s="18"/>
       <c r="P21" s="15"/>
@@ -1958,13 +1967,13 @@
         <v>62</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P22" s="24" t="s">
         <v>53</v>
@@ -2004,13 +2013,13 @@
         <v>63</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P23" s="35" t="s">
         <v>52</v>
@@ -2050,13 +2059,13 @@
         <v>66</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O24" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P24" s="35" t="s">
         <v>65</v>
@@ -2092,10 +2101,10 @@
       <c r="K25" s="10"/>
       <c r="L25" s="25"/>
       <c r="M25" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O25" s="33"/>
       <c r="P25" s="35"/>
@@ -2136,13 +2145,13 @@
         <v>63</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>52</v>
@@ -2182,13 +2191,13 @@
         <v>72</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>71</v>
@@ -2225,16 +2234,16 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="25" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>73</v>
@@ -2274,13 +2283,13 @@
         <v>72</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>75</v>
@@ -2320,15 +2329,15 @@
         <v>63</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P30" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O30" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="42" t="s">
         <v>48</v>
       </c>
       <c r="Q30" s="10"/>
@@ -2366,13 +2375,13 @@
         <v>78</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P31" s="14" t="s">
         <v>73</v>
@@ -2412,13 +2421,13 @@
         <v>63</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P32" s="14" t="s">
         <v>42</v>
@@ -2455,13 +2464,13 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
       <c r="L33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O33" s="10" t="s">
         <v>35</v>
@@ -2504,10 +2513,10 @@
         <v>45</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O34" s="10" t="s">
         <v>35</v>
@@ -2547,16 +2556,16 @@
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="9" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P35" s="14" t="s">
         <v>65</v>
@@ -2579,7 +2588,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>19</v>
@@ -2596,13 +2605,13 @@
         <v>63</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P36" s="14" t="s">
         <v>52</v>
@@ -2640,10 +2649,10 @@
         <v>3</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O37" s="10"/>
       <c r="P37" s="14"/>
@@ -2665,7 +2674,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="6" t="s">
@@ -2680,13 +2689,13 @@
         <v>49</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P38" s="14" t="s">
         <v>73</v>
@@ -2709,7 +2718,7 @@
         <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>19</v>
@@ -2722,20 +2731,20 @@
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="9" t="s">
-        <v>103</v>
+      <c r="L39" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -2768,22 +2777,21 @@
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="25" t="s">
-        <v>83</v>
+      <c r="L40" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q40" s="10"/>
+        <v>73</v>
+      </c>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
@@ -2815,16 +2823,16 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P41" s="14" t="s">
         <v>75</v>
@@ -2862,10 +2870,10 @@
         <v>1</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O42" s="10"/>
       <c r="P42" s="14"/>
@@ -2887,7 +2895,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>19</v>
@@ -2904,15 +2912,15 @@
         <v>63</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O43" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P43" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O43" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P43" s="42" t="s">
         <v>48</v>
       </c>
       <c r="Q43" s="10"/>
@@ -2933,7 +2941,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>19</v>
@@ -2947,19 +2955,19 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P44" s="14" t="s">
-        <v>86</v>
+        <v>110</v>
+      </c>
+      <c r="O44" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P44" s="42" t="s">
+        <v>85</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -2996,13 +3004,13 @@
         <v>63</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P45" s="14" t="s">
         <v>42</v>
@@ -3039,13 +3047,13 @@
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
       <c r="L46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O46" s="10" t="s">
         <v>35</v>
@@ -3088,10 +3096,10 @@
         <v>45</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O47" s="10" t="s">
         <v>35</v>
@@ -3117,7 +3125,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>19</v>
@@ -3134,13 +3142,13 @@
         <v>63</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P48" s="14" t="s">
         <v>52</v>
@@ -3163,7 +3171,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>19</v>
@@ -3177,16 +3185,16 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P49" s="14" t="s">
         <v>73</v>
@@ -3209,7 +3217,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>19</v>
@@ -3226,15 +3234,15 @@
         <v>63</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P50" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O50" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" s="42" t="s">
         <v>48</v>
       </c>
       <c r="Q50" s="10"/>
@@ -3255,7 +3263,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>19</v>
@@ -3272,16 +3280,16 @@
         <v>49</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -3301,7 +3309,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>19</v>
@@ -3318,16 +3326,16 @@
         <v>49</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O52" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -3364,13 +3372,13 @@
         <v>63</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P53" s="14" t="s">
         <v>42</v>
@@ -3407,13 +3415,13 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O54" s="10" t="s">
         <v>35</v>
@@ -3456,10 +3464,10 @@
         <v>45</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O55" s="10" t="s">
         <v>35</v>
@@ -3485,7 +3493,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>19</v>
@@ -3499,16 +3507,16 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P56" s="14" t="s">
         <v>71</v>
@@ -3548,13 +3556,13 @@
         <v>63</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P57" s="14" t="s">
         <v>42</v>
@@ -3577,7 +3585,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>19</v>
@@ -3591,16 +3599,16 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
@@ -3637,13 +3645,13 @@
         <v>63</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P59" s="14" t="s">
         <v>42</v>
@@ -3666,7 +3674,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>19</v>
@@ -3680,16 +3688,16 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
@@ -3723,13 +3731,13 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O61" s="10" t="s">
         <v>35</v>
@@ -3772,10 +3780,10 @@
         <v>45</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O62" s="10" t="s">
         <v>35</v>
@@ -3815,16 +3823,16 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O63" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P63" s="14" t="s">
         <v>71</v>
@@ -3847,7 +3855,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>19</v>
@@ -3864,13 +3872,13 @@
         <v>63</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O64" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P64" s="14" t="s">
         <v>42</v>
@@ -3907,13 +3915,13 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O65" s="10" t="s">
         <v>35</v>
@@ -3956,10 +3964,10 @@
         <v>45</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O66" s="10" t="s">
         <v>35</v>
@@ -3985,7 +3993,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>19</v>
@@ -3999,16 +4007,16 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P67" s="14" t="s">
         <v>71</v>
@@ -4031,7 +4039,7 @@
         <v>19</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>19</v>
@@ -4040,21 +4048,21 @@
         <v>21</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P68" s="14" t="s">
         <v>65</v>
@@ -4094,13 +4102,13 @@
         <v>63</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P69" s="14" t="s">
         <v>51</v>
@@ -4139,16 +4147,16 @@
         <v>63</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
@@ -4159,7 +4167,7 @@
       <c r="W70" s="8"/>
       <c r="X70" s="26"/>
     </row>
-    <row r="71" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
       <c r="C71" s="22"/>
@@ -4168,7 +4176,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>19</v>
@@ -4177,21 +4185,21 @@
         <v>21</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
       <c r="L71" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O71" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P71" s="14" t="s">
         <v>65</v>
@@ -4201,20 +4209,20 @@
       <c r="S71" s="10"/>
       <c r="T71" s="10"/>
       <c r="U71" s="10"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
       <c r="X71" s="26"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="22"/>
       <c r="E72" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>19</v>
@@ -4223,24 +4231,24 @@
         <v>21</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
-      <c r="L72" s="9" t="s">
-        <v>104</v>
+      <c r="L72" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
@@ -4252,9 +4260,9 @@
       <c r="X72" s="26"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="22"/>
       <c r="E73" s="4" t="s">
         <v>19</v>
@@ -4271,22 +4279,21 @@
       <c r="I73" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="25" t="s">
         <v>63</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O73" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P73" s="14" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
@@ -4306,7 +4313,7 @@
         <v>19</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>19</v>
@@ -4317,21 +4324,22 @@
       <c r="I74" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="J74" s="10"/>
       <c r="K74" s="10"/>
       <c r="L74" s="25" t="s">
         <v>63</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
@@ -4351,7 +4359,7 @@
         <v>19</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>19</v>
@@ -4364,19 +4372,19 @@
       </c>
       <c r="J75" s="10"/>
       <c r="K75" s="10"/>
-      <c r="L75" s="25" t="s">
+      <c r="L75" s="21" t="s">
         <v>63</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O75" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P75" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P75" s="15" t="s">
         <v>42</v>
       </c>
       <c r="Q75" s="10"/>
@@ -4389,214 +4397,88 @@
       <c r="X75" s="26"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E76" s="4" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P76" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="P76" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q76" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R76" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="S76" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T76" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="U76" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="V76" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="W76" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="X76" s="10"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M77" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N77" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O77" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P77" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="10"/>
-    </row>
-    <row r="78" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="M78" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N78" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O78" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P78" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J79" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K79" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L79" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M79" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N79" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="O79" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="P79" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="R79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="S79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="U79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="V79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="W79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="X79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M80" s="10"/>
@@ -4925,18 +4807,6 @@
     <row r="161" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M161" s="10"/>
       <c r="N161" s="10"/>
-    </row>
-    <row r="162" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M162" s="10"/>
-      <c r="N162" s="10"/>
-    </row>
-    <row r="163" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M163" s="10"/>
-      <c r="N163" s="10"/>
-    </row>
-    <row r="164" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M164" s="10"/>
-      <c r="N164" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
